--- a/SUVs and emissions/Car_stats_master.xlsx
+++ b/SUVs and emissions/Car_stats_master.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="58">
   <si>
     <t xml:space="preserve">Brand</t>
   </si>
@@ -195,9 +195,6 @@
     <t xml:space="preserve">Ford Fiesta CO2 figures prior to 2008 are calculated as is the 2002 BMW 3 Series CO2 figure</t>
   </si>
   <si>
-    <t xml:space="preserve">In 2017 the basic Fiesta became a crossover</t>
-  </si>
-  <si>
     <t xml:space="preserve">The 2008 Ford Kuga only came as a deisel in the basic model, so figures for this are used. Petrol engines were more powerful</t>
   </si>
 </sst>
@@ -301,10 +298,10 @@
   </sheetPr>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C43" activeCellId="0" sqref="C43"/>
+      <selection pane="topRight" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -981,8 +978,8 @@
   </sheetPr>
   <dimension ref="A1:G269"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A182" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B245" activeCellId="0" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4533,8 +4530,8 @@
       <c r="A155" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>12</v>
+      <c r="B155" s="1" t="n">
+        <v>207</v>
       </c>
       <c r="C155" s="1" t="n">
         <v>2009</v>
@@ -4556,8 +4553,8 @@
       <c r="A156" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>12</v>
+      <c r="B156" s="1" t="n">
+        <v>207</v>
       </c>
       <c r="C156" s="1" t="n">
         <v>2010</v>
@@ -5959,8 +5956,8 @@
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>23</v>
+      <c r="B217" s="1" t="n">
+        <v>208</v>
       </c>
       <c r="C217" s="1" t="n">
         <v>2013</v>
@@ -6594,8 +6591,8 @@
       <c r="A245" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>36</v>
+      <c r="B245" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C245" s="1" t="n">
         <v>2007</v>
@@ -6617,8 +6614,8 @@
       <c r="A246" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>36</v>
+      <c r="B246" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C246" s="1" t="n">
         <v>2008</v>
@@ -6640,8 +6637,8 @@
       <c r="A247" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>36</v>
+      <c r="B247" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C247" s="1" t="n">
         <v>2009</v>
@@ -6663,8 +6660,8 @@
       <c r="A248" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>36</v>
+      <c r="B248" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C248" s="1" t="n">
         <v>2010</v>
@@ -6686,8 +6683,8 @@
       <c r="A249" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>36</v>
+      <c r="B249" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C249" s="1" t="n">
         <v>2011</v>
@@ -6709,8 +6706,8 @@
       <c r="A250" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>36</v>
+      <c r="B250" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C250" s="1" t="n">
         <v>2012</v>
@@ -6732,8 +6729,8 @@
       <c r="A251" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>36</v>
+      <c r="B251" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C251" s="1" t="n">
         <v>2013</v>
@@ -6755,8 +6752,8 @@
       <c r="A252" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>36</v>
+      <c r="B252" s="1" t="n">
+        <v>500</v>
       </c>
       <c r="C252" s="1" t="n">
         <v>2014</v>
@@ -7174,7 +7171,7 @@
   </sheetPr>
   <dimension ref="A4:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7215,9 +7212,6 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
